--- a/data/trans_orig/P6601-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A676AA-FCF4-4E03-8A67-207445233ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECD32F3-6049-4E1F-9B19-90AEF84706C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B9D1740-5434-40BF-A631-30354194396D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A948702-8678-4990-BF20-2E21571010A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="805">
   <si>
     <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2007 (Tasa respuesta: 43,07%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -77,28 +77,28 @@
     <t>32,94%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>42,0%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,2314 +107,2338 @@
     <t>27,86%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2012 (Tasa respuesta: 33,92%)</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2016 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>36,19%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2012 (Tasa respuesta: 33,92%)</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2015 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a ruido tan alto que tiene que levantar la voz para hablar con otras personas en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>10,2%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>45,16%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>39,16%</t>
   </si>
   <si>
-    <t>43,13%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>31,2%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>8,38%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>8,59%</t>
@@ -2423,28 +2447,13 @@
     <t>8,88%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
 </sst>
 </file>
@@ -2856,7 +2865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C671907F-F6A6-491E-9B85-75F0A981976A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA67993-75E1-423D-904C-AE1045D923E6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3324,7 +3333,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3348,13 @@
         <v>105834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3354,13 +3363,13 @@
         <v>10052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -3369,13 +3378,13 @@
         <v>115886</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3399,13 @@
         <v>7199</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3411,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -3420,13 +3429,13 @@
         <v>7199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,7 +3491,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3494,13 +3503,13 @@
         <v>270777</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -3509,13 +3518,13 @@
         <v>192719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -3524,13 +3533,13 @@
         <v>463496</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3554,13 @@
         <v>149169</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -3560,13 +3569,13 @@
         <v>46070</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>179</v>
@@ -3575,13 +3584,13 @@
         <v>195239</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3605,13 @@
         <v>93434</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3611,13 +3620,13 @@
         <v>17987</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -3626,13 +3635,13 @@
         <v>111421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3656,13 @@
         <v>45514</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -3662,13 +3671,13 @@
         <v>10950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -3677,13 +3686,13 @@
         <v>56465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3751,13 +3760,13 @@
         <v>216476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>174</v>
@@ -3766,13 +3775,13 @@
         <v>173972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>368</v>
@@ -3781,13 +3790,13 @@
         <v>390447</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3811,13 @@
         <v>93439</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -3817,13 +3826,13 @@
         <v>31735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -3832,13 +3841,13 @@
         <v>125174</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3862,13 @@
         <v>62073</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3868,13 +3877,13 @@
         <v>5375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -3883,13 +3892,13 @@
         <v>67448</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3913,13 @@
         <v>34446</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3919,13 +3928,13 @@
         <v>932</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -3934,13 +3943,13 @@
         <v>35378</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +4005,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4008,13 +4017,13 @@
         <v>303740</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>288</v>
@@ -4023,13 +4032,13 @@
         <v>305319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>606</v>
@@ -4038,13 +4047,13 @@
         <v>609058</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4068,13 @@
         <v>113477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -4074,13 +4083,13 @@
         <v>51917</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>167</v>
@@ -4089,13 +4098,13 @@
         <v>165394</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4119,13 @@
         <v>96093</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -4125,13 +4134,13 @@
         <v>19723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -4140,13 +4149,13 @@
         <v>115816</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4173,10 @@
         <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -4176,13 +4185,13 @@
         <v>11164</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>53</v>
@@ -4191,13 +4200,13 @@
         <v>53762</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4274,13 @@
         <v>947218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>743</v>
@@ -4280,13 +4289,13 @@
         <v>778154</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>1646</v>
@@ -4295,13 +4304,13 @@
         <v>1725372</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4325,13 @@
         <v>448663</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>161</v>
@@ -4331,13 +4340,13 @@
         <v>169179</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>592</v>
@@ -4346,13 +4355,13 @@
         <v>617842</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4376,13 @@
         <v>375355</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>53</v>
@@ -4382,13 +4391,13 @@
         <v>53989</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>414</v>
@@ -4397,13 +4406,13 @@
         <v>429344</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4427,13 @@
         <v>134150</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -4433,13 +4442,13 @@
         <v>23046</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>152</v>
@@ -4448,13 +4457,13 @@
         <v>157196</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,7 +4519,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4531,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A18562C-53DF-4E18-A11F-0C65BBAAFE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF5CA56-B78D-4A8F-B881-0520468DE95A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4548,7 +4557,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4655,10 +4664,10 @@
         <v>18299</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>230</v>
@@ -4793,7 +4802,7 @@
         <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,10 +4817,10 @@
         <v>8047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>255</v>
@@ -4996,10 +5005,10 @@
         <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5023,13 @@
         <v>45044</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5029,13 +5038,13 @@
         <v>9382</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -5047,10 +5056,10 @@
         <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5074,13 @@
         <v>18333</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5086,7 +5095,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -5095,13 +5104,13 @@
         <v>18333</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,7 +5166,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5169,13 +5178,13 @@
         <v>191416</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>139</v>
@@ -5184,13 +5193,13 @@
         <v>156842</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -5199,13 +5208,13 @@
         <v>348259</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5229,13 @@
         <v>121066</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
@@ -5235,13 +5244,13 @@
         <v>79631</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M15" s="7">
         <v>188</v>
@@ -5250,13 +5259,13 @@
         <v>200697</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5280,13 @@
         <v>68746</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -5286,13 +5295,13 @@
         <v>23348</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -5301,13 +5310,13 @@
         <v>92094</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,10 +5331,10 @@
         <v>28433</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>320</v>
@@ -5414,7 +5423,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5510,10 +5519,10 @@
         <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5537,13 @@
         <v>50498</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -5543,13 +5552,13 @@
         <v>16093</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -5558,13 +5567,13 @@
         <v>66591</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5588,7 @@
         <v>19032</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>354</v>
@@ -5615,7 +5624,7 @@
         <v>360</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,7 +5680,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5683,13 +5692,13 @@
         <v>191332</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H24" s="7">
         <v>168</v>
@@ -5698,13 +5707,13 @@
         <v>176399</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M24" s="7">
         <v>351</v>
@@ -5713,13 +5722,13 @@
         <v>367731</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5743,13 @@
         <v>115289</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>65</v>
+        <v>373</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -5749,13 +5758,13 @@
         <v>85940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>195</v>
@@ -5764,13 +5773,13 @@
         <v>201229</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5794,13 @@
         <v>80468</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
+        <v>380</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5800,13 +5809,13 @@
         <v>20343</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -5815,13 +5824,13 @@
         <v>100811</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5845,13 @@
         <v>30568</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H27" s="7">
         <v>19</v>
@@ -5851,13 +5860,13 @@
         <v>18821</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M27" s="7">
         <v>47</v>
@@ -5866,13 +5875,13 @@
         <v>49389</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5949,13 @@
         <v>631631</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>399</v>
       </c>
       <c r="H29" s="7">
         <v>516</v>
@@ -5955,13 +5964,13 @@
         <v>564027</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M29" s="7">
         <v>1102</v>
@@ -5970,13 +5979,13 @@
         <v>1195658</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6000,13 @@
         <v>429260</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H30" s="7">
         <v>253</v>
@@ -6006,13 +6015,13 @@
         <v>272714</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M30" s="7">
         <v>662</v>
@@ -6021,13 +6030,13 @@
         <v>701973</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6051,13 @@
         <v>252389</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H31" s="7">
         <v>66</v>
@@ -6057,13 +6066,13 @@
         <v>70306</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M31" s="7">
         <v>309</v>
@@ -6072,13 +6081,13 @@
         <v>322695</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>415</v>
+        <v>105</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6102,13 @@
         <v>104413</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>323</v>
+        <v>422</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H32" s="7">
         <v>41</v>
@@ -6108,13 +6117,13 @@
         <v>41633</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="M32" s="7">
         <v>134</v>
@@ -6123,13 +6132,13 @@
         <v>146046</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>323</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,7 +6194,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6206,7 +6215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5FF5F3-5B1A-4145-9AAD-3FD689E22C75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CA929A-CB5A-4054-8847-1A4779C56D44}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6223,7 +6232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6330,13 +6339,13 @@
         <v>16699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6345,13 +6354,13 @@
         <v>17721</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -6360,13 +6369,13 @@
         <v>34421</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6390,13 @@
         <v>14508</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>442</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -6396,13 +6405,13 @@
         <v>7924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -6411,13 +6420,13 @@
         <v>22431</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6441,13 @@
         <v>7734</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6447,13 +6456,13 @@
         <v>2599</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -6462,13 +6471,13 @@
         <v>10333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6492,13 @@
         <v>3972</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>451</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6498,13 +6507,13 @@
         <v>1647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>460</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>453</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6516,10 +6525,10 @@
         <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>461</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6596,13 @@
         <v>110344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H9" s="7">
         <v>94</v>
@@ -6602,13 +6611,13 @@
         <v>90320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M9" s="7">
         <v>198</v>
@@ -6617,13 +6626,13 @@
         <v>200664</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6647,13 @@
         <v>61127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>464</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -6653,13 +6662,13 @@
         <v>34897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>468</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -6668,13 +6677,13 @@
         <v>96024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6698,13 @@
         <v>15869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -6704,13 +6713,13 @@
         <v>4920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -6719,13 +6728,13 @@
         <v>20789</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6749,13 @@
         <v>9951</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6755,13 +6764,13 @@
         <v>6514</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -6770,13 +6779,13 @@
         <v>16465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,7 +6841,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6844,13 +6853,13 @@
         <v>169857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="H14" s="7">
         <v>149</v>
@@ -6859,13 +6868,13 @@
         <v>155457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -6874,13 +6883,13 @@
         <v>325314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6904,13 @@
         <v>134194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H15" s="7">
         <v>76</v>
@@ -6910,13 +6919,13 @@
         <v>76207</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="M15" s="7">
         <v>197</v>
@@ -6925,13 +6934,13 @@
         <v>210401</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6955,13 @@
         <v>73878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -6961,13 +6970,13 @@
         <v>26351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -6979,10 +6988,10 @@
         <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7006,13 @@
         <v>28754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -7015,10 +7024,10 @@
         <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -7027,13 +7036,13 @@
         <v>43572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,7 +7098,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7101,13 +7110,13 @@
         <v>100339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
         <v>97</v>
@@ -7116,13 +7125,13 @@
         <v>98940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>525</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>187</v>
@@ -7131,13 +7140,13 @@
         <v>199279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7161,13 @@
         <v>146400</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -7167,13 +7176,13 @@
         <v>108341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -7182,13 +7191,13 @@
         <v>254741</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7212,13 @@
         <v>76241</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>539</v>
+        <v>248</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -7218,13 +7227,13 @@
         <v>48867</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="M21" s="7">
         <v>118</v>
@@ -7233,13 +7242,13 @@
         <v>125108</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7263,13 @@
         <v>38640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -7269,13 +7278,13 @@
         <v>14410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -7284,13 +7293,13 @@
         <v>53050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>560</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,7 +7355,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7358,13 +7367,13 @@
         <v>190707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="H24" s="7">
         <v>188</v>
@@ -7373,13 +7382,13 @@
         <v>198824</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="M24" s="7">
         <v>373</v>
@@ -7388,13 +7397,13 @@
         <v>389531</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7418,13 @@
         <v>119769</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -7424,13 +7433,13 @@
         <v>80804</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>196</v>
@@ -7439,13 +7448,13 @@
         <v>200573</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7469,13 @@
         <v>63823</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -7475,13 +7484,13 @@
         <v>30710</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -7490,13 +7499,13 @@
         <v>94533</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>578</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7520,13 @@
         <v>24924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -7526,13 +7535,13 @@
         <v>13038</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>582</v>
+        <v>357</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="M27" s="7">
         <v>35</v>
@@ -7541,13 +7550,13 @@
         <v>37962</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7624,13 @@
         <v>587946</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="H29" s="7">
         <v>546</v>
@@ -7630,13 +7639,13 @@
         <v>561262</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="M29" s="7">
         <v>1093</v>
@@ -7645,13 +7654,13 @@
         <v>1149208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7675,13 @@
         <v>475998</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>595</v>
+        <v>262</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H30" s="7">
         <v>303</v>
@@ -7681,13 +7690,13 @@
         <v>308172</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>499</v>
+        <v>606</v>
       </c>
       <c r="M30" s="7">
         <v>747</v>
@@ -7696,13 +7705,13 @@
         <v>784171</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7726,13 @@
         <v>237545</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H31" s="7">
         <v>113</v>
@@ -7732,13 +7741,13 @@
         <v>113447</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="M31" s="7">
         <v>334</v>
@@ -7747,13 +7756,13 @@
         <v>350992</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>608</v>
+        <v>177</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7777,13 @@
         <v>106242</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -7783,13 +7792,13 @@
         <v>50426</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="M32" s="7">
         <v>145</v>
@@ -7798,13 +7807,13 @@
         <v>156668</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,7 +7869,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7881,7 +7890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3C9861-DC25-4468-9038-FC45065DA5D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861732EB-7CC2-4FC3-847F-5C0067D6E5A6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7898,7 +7907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8005,13 +8014,13 @@
         <v>6676</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>395</v>
+        <v>630</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -8020,13 +8029,13 @@
         <v>10945</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -8035,13 +8044,13 @@
         <v>17621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>625</v>
+        <v>58</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8065,13 @@
         <v>10696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -8071,13 +8080,13 @@
         <v>5905</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -8086,13 +8095,13 @@
         <v>16601</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8116,13 @@
         <v>4944</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>646</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8128,7 +8137,7 @@
         <v>44</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>639</v>
+        <v>495</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8137,13 +8146,13 @@
         <v>4944</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,7 +8173,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8179,7 +8188,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>639</v>
+        <v>495</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -8194,7 +8203,7 @@
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8271,13 @@
         <v>56951</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
+        <v>653</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -8277,13 +8286,13 @@
         <v>61111</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
@@ -8292,13 +8301,13 @@
         <v>118063</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8322,13 @@
         <v>76502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -8328,13 +8337,13 @@
         <v>47347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>654</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -8343,13 +8352,13 @@
         <v>123849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8373,13 @@
         <v>14826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -8379,13 +8388,13 @@
         <v>5266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -8394,13 +8403,13 @@
         <v>20091</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>665</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8424,13 @@
         <v>4209</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -8430,13 +8439,13 @@
         <v>3254</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>680</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -8445,13 +8454,13 @@
         <v>7463</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>445</v>
+        <v>681</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>187</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,7 +8516,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8519,13 +8528,13 @@
         <v>158553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>676</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
@@ -8534,13 +8543,13 @@
         <v>109376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -8549,13 +8558,13 @@
         <v>267928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8579,13 @@
         <v>147815</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="H15" s="7">
         <v>124</v>
@@ -8585,13 +8594,13 @@
         <v>85197</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="M15" s="7">
         <v>262</v>
@@ -8600,13 +8609,13 @@
         <v>233013</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8630,13 @@
         <v>42310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>518</v>
+        <v>702</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -8636,13 +8645,13 @@
         <v>22500</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>705</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -8651,13 +8660,13 @@
         <v>64810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>697</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8681,13 @@
         <v>17931</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>711</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -8687,13 +8696,13 @@
         <v>6857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>550</v>
+        <v>712</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>701</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -8702,13 +8711,13 @@
         <v>24788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>705</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,7 +8773,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8776,13 +8785,13 @@
         <v>78495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="H19" s="7">
         <v>113</v>
@@ -8791,13 +8800,13 @@
         <v>93259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="M19" s="7">
         <v>185</v>
@@ -8806,13 +8815,13 @@
         <v>171754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8836,13 @@
         <v>68601</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -8842,13 +8851,13 @@
         <v>47326</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>717</v>
+        <v>454</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -8857,13 +8866,13 @@
         <v>115927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8887,13 @@
         <v>18631</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -8893,13 +8902,13 @@
         <v>4209</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>725</v>
+        <v>453</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>252</v>
+        <v>736</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -8908,13 +8917,13 @@
         <v>22841</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8938,13 @@
         <v>13438</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>576</v>
+        <v>742</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -8944,13 +8953,13 @@
         <v>9788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -8959,13 +8968,13 @@
         <v>23226</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>748</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9021,7 +9030,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9033,13 +9042,13 @@
         <v>130815</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="H24" s="7">
         <v>160</v>
@@ -9048,13 +9057,13 @@
         <v>114800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="M24" s="7">
         <v>288</v>
@@ -9063,13 +9072,13 @@
         <v>245614</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>744</v>
+        <v>368</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,13 +9093,13 @@
         <v>70594</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -9099,13 +9108,13 @@
         <v>59436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="M25" s="7">
         <v>152</v>
@@ -9114,13 +9123,13 @@
         <v>130031</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9144,13 @@
         <v>21985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>755</v>
+        <v>486</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -9150,13 +9159,13 @@
         <v>13536</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>760</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -9165,13 +9174,13 @@
         <v>35521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>770</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>771</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,13 +9195,13 @@
         <v>11567</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="H27" s="7">
         <v>17</v>
@@ -9201,13 +9210,13 @@
         <v>13149</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -9216,13 +9225,13 @@
         <v>24716</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>769</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9290,13 +9299,13 @@
         <v>431489</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="H29" s="7">
         <v>506</v>
@@ -9305,13 +9314,13 @@
         <v>389491</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>773</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="M29" s="7">
         <v>853</v>
@@ -9320,13 +9329,13 @@
         <v>820980</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,13 +9350,13 @@
         <v>374208</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>522</v>
+        <v>789</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="H30" s="7">
         <v>356</v>
@@ -9356,13 +9365,13 @@
         <v>245212</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>783</v>
+        <v>338</v>
       </c>
       <c r="M30" s="7">
         <v>713</v>
@@ -9371,13 +9380,13 @@
         <v>619420</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9401,13 @@
         <v>102697</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>789</v>
+        <v>549</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -9407,13 +9416,13 @@
         <v>45510</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M31" s="7">
         <v>151</v>
@@ -9422,13 +9431,13 @@
         <v>148207</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>795</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9452,13 @@
         <v>47145</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -9458,13 +9467,13 @@
         <v>33048</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>797</v>
+        <v>319</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>798</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -9473,13 +9482,13 @@
         <v>80193</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>800</v>
+        <v>673</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>801</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9535,7 +9544,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
